--- a/ООО ЧОП «Команда».xlsx
+++ b/ООО ЧОП «Команда».xlsx
@@ -77,7 +77,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.789887640449443"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.48988764044944"/>
   </cols>
@@ -201,10 +201,8 @@
       <c r="D5" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>ООО ЧОП «Команда»</t>
-        </is>
+      <c r="E5" s="0" t="n">
+        <v>2000.0</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>

--- a/ООО ЧОП «Команда».xlsx
+++ b/ООО ЧОП «Команда».xlsx
@@ -67,13 +67,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="93.28988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="83.38988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.48988764044944"/>
@@ -85,7 +85,7 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>Платежи населения, принятые через сервис АйЖКХ в пользу ООО ЧОП "Команда" </t>
+          <t>Платежи населения, принятые через сервис АйЖКХ в пользу ООО ЧОП «Команда»</t>
         </is>
       </c>
     </row>
@@ -129,7 +129,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Монтаж</t>
+          <t>Охрана</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
@@ -144,7 +144,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>100.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -155,64 +155,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Монтаж</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>12333</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>2014-05-27</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Охрана</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>12333</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>2014-05-27</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
